--- a/Translator/excel/French_flattened.xlsx
+++ b/Translator/excel/French_flattened.xlsx
@@ -10919,8 +10919,8 @@
   </si>
   <si>
     <t>définir la couleur du fichier sélectionné dans le browser.
-      Exemple : browsed_file_color "red"
-      Utiliser browsed_file_color "reset" pour effacer la couleur et rétablir la couleur par défaut</t>
+Exemple : browsed_file_color "red"
+Utiliser browsed_file_color "reset" pour effacer la couleur et rétablir la couleur par défaut</t>
   </si>
   <si>
     <t>ouvrir l'Editeur de Tags pour le morceau browsé.</t>
@@ -10953,9 +10953,9 @@
     <t>Recommandations de recherche basées sur les éléments actuellement sélectionnés dans le navigateur\nUtilisez 'browser_geniusdj Playing' pour utiliser la piste en cours de lecture au lieu de la piste sélectionnée dans le navigateur.</t>
   </si>
   <si>
-    <t>'browser_gotofolder' amène au dossier qui contient le fichier en cours.
-      'browser_gotofolder "/my_path/my_folder"' amène au fichier spécifié.
-      'browser_gotofolder 4' amène au 4ème dossier virtuel/favori.</t>
+    <t>'browser_gotofolder' amène au dossier qui contient le fichier en cours. 
+'browser_gotofolder "/my_path/my_folder"' amène au fichier spécifié. 
+'browser_gotofolder 4' amène au 4ème dossier virtuel/favori.</t>
   </si>
   <si>
     <t>renvoie 'true' si le browser a été utilisé par un controlleur dans les 6 dernières secondes</t>
@@ -10977,25 +10977,25 @@
   </si>
   <si>
     <t>faire défiler les morceaux ou les dossiers.
-      'browser_scroll +1' ou 'browser_scroll -1' pour faire défiler une ligne, ou "browser_scroll 'top'", "browser_scroll 'bottom'" pour faire défiler jusqu'au début ou jusqu'à la fin</t>
+'browser_scroll +1' ou 'browser_scroll -1' pour faire défiler une ligne, ou "browser_scroll 'top'", "browser_scroll 'bottom'" pour faire défiler jusqu'au début ou jusqu'à la fin</t>
   </si>
   <si>
     <t>'browser_shortcut' : attribue le dossier actuel comme nouveau raccourci\n'browser_shortcut X' : accédez au dossier attribué au Xème raccourci</t>
   </si>
   <si>
     <t>Trier les fichiers du browser sur la colonne choisie : 'browser_sort "artist"', 'browser_sort "lastplay"',...
-      Pour trier par ordre décroissant, ajouter un - devant le titre de la colonne : 'browser_sort "-bpm"'
-      Pour trier par ordre croissant, ajouter un + devant le titre de la colonne : 'browser_sort "+bpm"'
-      Pour réinitialiser l'ordre de tri d'une playlist à son ordre initial, utilisez 'browser_sort "Original Sort Order"'</t>
+Pour trier par ordre décroissant, ajouter un - devant le titre de la colonne : 'browser_sort "-bpm"'
+Pour trier par ordre croissant, ajouter un + devant le titre de la colonne : 'browser_sort "+bpm"'
+Pour réinitialiser l'ordre de tri d'une playlist à son ordre initial, utilisez 'browser_sort "Original Sort Order"'</t>
   </si>
   <si>
     <t>Modifier la zone du browser actif. "browser_window 'folders'", "browser_window 'songs'", "browser_window 'sideview'", ou "browser_window 'automix'", "browser_window 'sidelist'", "browser_window 'sampler'"
-      Parcourir les zones disponibles du browser. "browser_window +1", "browser_window -1"
-      Parcourir les zones spécifiées. Exemple "browser_window 'folders,songs'"</t>
+Parcourir les zones disponibles du browser. "browser_window +1", "browser_window -1"
+Parcourir les zones spécifiées. Exemple "browser_window 'folders,songs'"</t>
   </si>
   <si>
     <t>renvoie 'true' si virtualdj peut être mis en mode sandbox.
-      sandbox ne peut être activé lorsque vous avez des effets ou samples actifs, une vidéo, si vous scratchez, ou si vous avez plus d'un deck qui joue avec du son.</t>
+sandbox ne peut être activé lorsque vous avez des effets ou samples actifs, une vidéo, si vous scratchez, ou si vous avez plus d'un deck qui joue avec du son.</t>
   </si>
   <si>
     <t>effacer la chaîne de recherche</t>
@@ -11011,10 +11011,10 @@
   </si>
   <si>
     <t>couleur "red"
-      couleur "#C08040"
-      couleur 0.8 0.5 0.25
-      couleur 75% "red" (renvoie un rouge terne)
-      couleur 0.66 (renvoie un gris)</t>
+couleur "#C08040"
+couleur 0.8 0.5 0.25
+couleur 75% "red" (renvoie un rouge terne)
+couleur 0.66 (renvoie un gris)</t>
   </si>
   <si>
     <t>Mélangez deux couleurs en fonction d'une action du troisième paramètre\ncolor_mix white red `get_limiter`</t>
@@ -11063,8 +11063,8 @@
   </si>
   <si>
     <t>requêter ou définir la couleur d'un point cue
-      Exemple de requête : cue_color 1
-      Exemple de définition : cue_color 1 'yellow'</t>
+Exemple de requête : cue_color 1
+Exemple de définition : cue_color 1 'yellow'</t>
   </si>
   <si>
     <t>compte à rebours jusqu'au prochain signal (ou fin) en temps\nutilisez 'cue_countdown color' ou 'cue_countdown name' pour obtenir le nom ou la couleur du prochain point cue</t>
@@ -11194,7 +11194,7 @@
   </si>
   <si>
     <t>'effect_button 1 2' bouton 2 sur slot 1
-      'effect_button 2' bouton 2 sur slot 1</t>
+'effect_button 2' bouton 2 sur slot 1</t>
   </si>
   <si>
     <t>Charger sur ce deck les 3 slots du deck en cours, gauche ou droit</t>
@@ -11222,7 +11222,7 @@
   </si>
   <si>
     <t>effect_has_slider 1 2 on -&gt; renvoie 'true' si il y a un deuxième slider sur le slot 1
-      effect_has_slider 1 -&gt; renvoie 'true' si il y a un premier slider sur le slot 0</t>
+effect_has_slider 1 -&gt; renvoie 'true' si il y a un premier slider sur le slot 0</t>
   </si>
   <si>
     <t>Associer un effet au crossfader</t>
@@ -11244,13 +11244,13 @@
   </si>
   <si>
     <t>effect_select_multi 2 "echo" -&gt; sélectionner effet echo dans le slot 2
-      effect_select_multi 1 -1 -&gt; sélectionner effet précédent dans le slot 1
-      effect_select_multi +1 -&gt; sélectionner effet suivant dans le slot 1
-      effect_select_multi -&gt; afficher fenêtre de popup pour le slot 1
-      effect_select_multi 1 -&gt; afficher fenêtre de popup pour le slot 1
-      effect_select_multi 1 0.2 -&gt; sélectionner l'effet 2/10ème à partir de la liste dans le slot 1
-      effect_select_multi "video" -&gt; sélectionner l'effet dans le slot effet graphique
-      effect_select_multi ne désactive pas le précédent plugin dans le slot spécifié</t>
+effect_select_multi 1 -1 -&gt; sélectionner effet précédent dans le slot 1
+effect_select_multi +1 -&gt; sélectionner effet suivant dans le slot 1
+effect_select_multi -&gt; afficher fenêtre de popup pour le slot 1
+effect_select_multi 1 -&gt; afficher fenêtre de popup pour le slot 1
+effect_select_multi 1 0.2 -&gt; sélectionner l'effet 2/10ème à partir de la liste dans le slot 1
+effect_select_multi "video" -&gt; sélectionner l'effet dans le slot effet graphique
+effect_select_multi ne désactive pas le précédent plugin dans le slot spécifié</t>
   </si>
   <si>
     <t>Identique à effect_select, mais affiche temporairement la liste déroulante de sélection pour une sélection plus facile</t>
@@ -11263,8 +11263,8 @@
   </si>
   <si>
     <t>Déplacer le nième slider sur l'effet donné
-      "effect_slider 1 2 50%" : positionner slider id 2 du slot 1 à 50%
-      "effect_slider 1 0%" : positionner slider id 1 du slot 1 à 0%</t>
+"effect_slider 1 2 50%" : positionner slider id 2 du slot 1 à 50%
+"effect_slider 1 0%" : positionner slider id 1 du slot 1 à 0%</t>
   </si>
   <si>
     <t>déplacer un slider et activer l'effet tant que le bouton de la souris est enfoncé</t>
@@ -11463,9 +11463,9 @@
   </si>
   <si>
     <t>"get_beat_num" renvoie une valeur entre 1 et 4 indiquant le beat dans la mesure
-      "get_beat_num 1 4" renvoie 'true' quand le premier beat de la mesure est en train de jouer
-      "get_beat_num 1" renvoie 'true' quand le premier beat d'une mesure 4-beat est en train de jouer (fonctionne de 1 à 4)
-      "get_beat_num 16" renvoie un pourcentage indiquant la position du beat dans une phrase 16-beat (fonctionne avec tout nombre de phrases supérieur à 4)</t>
+"get_beat_num 1 4" renvoie 'true' quand le premier beat de la mesure est en train de jouer
+"get_beat_num 1" renvoie 'true' quand le premier beat d'une mesure 4-beat est en train de jouer (fonctionne de 1 à 4)
+"get_beat_num 16" renvoie un pourcentage indiquant la position du beat dans une phrase 16-beat (fonctionne avec tout nombre de phrases supérieur à 4)</t>
   </si>
   <si>
     <t>obtenir l'intensité des beats des deux decks au même moment.</t>
@@ -11499,11 +11499,11 @@
   </si>
   <si>
     <t>'get_browsed_folder_selection 1 3' renvoie 'true' si la première ligne est la ligne sélectionnée dans un browser de 3 lignes
-      'get_browsed_folder_selection 3' renvoie le numéro de la ligne sélectionnée dans un browser de 3 lignes (entre 1 et 3)</t>
+'get_browsed_folder_selection 3' renvoie le numéro de la ligne sélectionnée dans un browser de 3 lignes (entre 1 et 3)</t>
   </si>
   <si>
     <t>'get_browsed_selection 1 3' renvoie 'true' si la première ligne est la ligne sélectionnée dans un browser de 3 lignes
-      'get_browsed_selection 3' renvoie le numéro de la ligne sélectionnée dans un browser de 3 lignes (entre 1 et 3)</t>
+'get_browsed_selection 3' renvoie le numéro de la ligne sélectionnée dans un browser de 3 lignes (entre 1 et 3)</t>
   </si>
   <si>
     <t>obtenir une propriété du fichier en cours : "get_browsed_song 'title'", "get browsed_song 'playcount'", etc...</t>
@@ -11537,7 +11537,7 @@
   </si>
   <si>
     <t>renvoie 'blue' ou 'red' selon si le deck est le deck de gauche ou de droite (et gris dans les autres cas). Peut être utilisé avec un modificateur pour foncer les couleurs : 'get_deck_color 50%'
-      Utiliser 'get_deck_color "absolute"' ou 'get_deck_color "absolute" 50%' pour obtenir une couleur basée sur le deck actuel plutôt que gauche/droite (rouge pour le deck 1, bleu pour le deck 2, orange pour le deck 3, vert pour le deck 4)</t>
+Utiliser 'get_deck_color "absolute"' ou 'get_deck_color "absolute" 50%' pour obtenir une couleur basée sur le deck actuel plutôt que gauche/droite (rouge pour le deck 1, bleu pour le deck 2, orange pour le deck 3, vert pour le deck 4)</t>
   </si>
   <si>
     <t>obtenir la lettre du deck</t>
@@ -11784,9 +11784,9 @@
   </si>
   <si>
     <t>obtenir le temps écoulé (ou le temps restant ou total selon le "display_time"), en millisecondes.
-      Utiliser 'get time 1000' pour obtenir une unité autre que ms (1000=ms, 25=1/25ème d'une seconde, 44100=frames, etc).
-      Utiliser "elapsed", "remain" ou "total" pour contourner le réglage de display_time. Utiliser "absolute" pour ne pas prendre le pitch en compte.
-      Pour les textes, utiliser "short" pour ne pas afficher les décimales. Exemple : get_time "remain" "short"</t>
+Utiliser 'get time 1000' pour obtenir une unité autre que ms (1000=ms, 25=1/25ème d'une seconde, 44100=frames, etc). 
+Utiliser "elapsed", "remain" ou "total" pour contourner le réglage de display_time. Utiliser "absolute" pour ne pas prendre le pitch en compte.
+Pour les textes, utiliser "short" pour ne pas afficher les décimales. Exemple : get_time "remain" "short"</t>
   </si>
   <si>
     <t>Obtenir les heures du temps écoulé (ou restant ou total, en fonction de "display_time")\nUtilisez 'get_time_hour "absolute"' si vous ne voulez pas prendre en compte les variations de hauteur\nVous pouvez écrire 'get_time_hour "elapsed"' ou "remain" ou "total" pour ignorer le paramètre de display_time</t>
@@ -11871,7 +11871,7 @@
   </si>
   <si>
     <t>Aller au cue spécifié. Exemple "goto_cue 1", "goto_cue +1", "goto_cue -1"
-      "goto_cue" ira directement au dernier cue/cue sélectionné.</t>
+"goto_cue" ira directement au dernier cue/cue sélectionné.</t>
   </si>
   <si>
     <t>va automatiquement au premier beat du morceau.</t>
@@ -11953,7 +11953,7 @@
   </si>
   <si>
     <t>permuter le deck de gauche entre deck 1 et deck 3 ou le deck de droite entre deck 2 et deck 4
-      "invert_deck" pour échanger le deck appelant ou "invert_deck 'left'", "invert_deck 'right'" pour permuter spécifiquement le deck de gauche ou de droite</t>
+"invert_deck" pour échanger le deck appelant ou "invert_deck 'left'", "invert_deck 'right'" pour permuter spécifiquement le deck de gauche ou de droite</t>
   </si>
   <si>
     <t>Inverser la commande timecode (en cas d'une source timecode, la permuter dans les decks disponibles, en cas de 2 sources timecode sources, de 1 à 3, 2 à 4)</t>
@@ -12047,8 +12047,8 @@
   </si>
   <si>
     <t>assigner ce deck à la gauche du crossfader : "deck 3 leftcross"
-      "deck 3 leftcross 'only'" pour assigner seulement le deck 3 à la gauche du crossfader
-      "leftcross 'none'" pour désactiver le crossfader gauche</t>
+"deck 3 leftcross 'only'" pour assigner seulement le deck 3 à la gauche du crossfader
+"leftcross 'none'" pour désactiver le crossfader gauche</t>
   </si>
   <si>
     <t>sélectionner ce deck en tant que deck de gauche : "deck 3 leftdeck" ou "leftdeck +1"</t>
@@ -12112,10 +12112,10 @@
   </si>
   <si>
     <t>utiliser le jogwheel pour régler la loop.
-      loop_adjust (ou loop_adjust on, loop_adjust off, loop_adjust toggle) rend actif le mode de réglage de la loop (si la loop est active)
-      loop_adjust 'popup' affiche le menu contextuel permettant de sélectionner ce qui va être ajusté (in, out ou move)
-      loop_adjust 'move', loop_adjust 'out', loop_adjust 'in' pour activer un mode de réglage de loop spécifique
-      loop_adjust -1, loop_adjust +1 imite le fait de bouger le jogwheel lorsque le réglage de la loop est actif</t>
+loop_adjust (ou loop_adjust on, loop_adjust off, loop_adjust toggle) rend actif le mode de réglage de la loop (si la loop est active)
+loop_adjust 'popup' affiche le menu contextuel permettant de sélectionner ce qui va être ajusté (in, out ou move)
+loop_adjust 'move', loop_adjust 'out', loop_adjust 'in' pour activer un mode de réglage de loop spécifique
+loop_adjust -1, loop_adjust +1 imite le fait de bouger le jogwheel lorsque le réglage de la loop est actif</t>
   </si>
   <si>
     <t>Quand le mode de loop back est activé, démarrer une loop en définit la fin, bouclant ce que vous venez d'entendre. Désactivé, le démarrage d'une loop définit le point de départ de la loop.</t>
@@ -12125,8 +12125,8 @@
   </si>
   <si>
     <t>requêter ou définir la couleur d'une loop sauvegardée
-      Exemple de requête : loop_color 1
-      Exemple de définition : loop_color 1 'yellow'</t>
+Exemple de requête : loop_color 1
+Exemple de définition : loop_color 1 'yellow'</t>
   </si>
   <si>
     <t>'loop_delete 1' Supprime la loop sauvegardée dans le slot 1</t>
@@ -12148,11 +12148,11 @@
   </si>
   <si>
     <t>'loop_load 1' charge la loop sauvegardée du slot 1
-      'loop_load "myloop"' charge la loop sauvegardée appelée "myloop"</t>
+'loop_load "myloop"' charge la loop sauvegardée appelée "myloop"</t>
   </si>
   <si>
     <t>'loop_load_prepare 1' active/désactive la loop sauvegardée dans le slot 1 sans revenir au départ de la loop
-      'loop_load_prepare "myloop"' active/désactive la loop sauvegardée appelée "myloop" sans revenir au départ de la loop</t>
+'loop_load_prepare "myloop"' active/désactive la loop sauvegardée appelée "myloop" sans revenir au départ de la loop</t>
   </si>
   <si>
     <t>déplacer la loop sans modifier sa durée. 'loop_move +10ms' définit une distance en ms, 'loop_move +2' définit une distance en beats, 'loop_move +50%' définit une distance en pourcentage de la durée actuelle.</t>
@@ -12176,15 +12176,15 @@
     <t>Obtenir la position relative au sein de la loop (de 0% à 100%)</t>
   </si>
   <si>
-    <t>"loop_roll 0.25" pour un loop roll 1/4 de beat
-      "loop_roll video" pour basculer la loop roll vidéo on ou off</t>
+    <t>"loop_roll 0.25" pour un loop roll 1/4 de beat 
+"loop_roll video" pour basculer la loop roll vidéo on ou off</t>
   </si>
   <si>
     <t>Si le mode loop roll est actif, à la sortie de la loop, le morceau reprend à la position où il aurait été si aucun looping n'avait eu lieu</t>
   </si>
   <si>
     <t>'loop_save 1' sauvegarde la loop en cours dans le slot 1
-      'loop_save "myloop"' sauvegarde la loop en cours et la nomme "myloop"</t>
+'loop_save "myloop"' sauvegarde la loop en cours et la nomme "myloop"</t>
   </si>
   <si>
     <t>définir la taille de la loop (ou de la loop par défaut si aucune loop n'est active). Si aucun paramètre n'est fourni, une popup s'affichera avec la liste des valeurs de loop parmi lesquelles choisir.</t>
@@ -12224,7 +12224,7 @@
   </si>
   <si>
     <t>mettre l'application en maximisée, plein écran, ou la remettre au format fenêtre.
-      Un mode spécifique peut être sélectionné en utilisant "maximize 'windowed'", "maximize 'maximized'" ou "maximize 'fullscreen'"</t>
+Un mode spécifique peut être sélectionné en utilisant "maximize 'windowed'", "maximize 'maximized'" ou "maximize 'fullscreen'"</t>
   </si>
   <si>
     <t>afficher un menu sur l'écran du controller, qui permet de modifier le comportement des boutons du menu. il vous est possible de naviguer dans le menu grâce à l'action de browser_scroll.</t>
@@ -12303,7 +12303,7 @@
   </si>
   <si>
     <t>Ouvrir le menu de sélection pour le multi-bouton nommé.
-      Si un deuxième paramètre de texte est fourni après le nom, l'utiliser comme une nouvelle action à charger dans le multi-bouton : 'multibutton_select "my_button" "goto_cue 2 &amp; play"'</t>
+Si un deuxième paramètre de texte est fourni après le nom, l'utiliser comme une nouvelle action à charger dans le multi-bouton : 'multibutton_select "my_button" "goto_cue 2 &amp; play"'</t>
   </si>
   <si>
     <t>Mettre en mute un deck spécifique</t>
@@ -12349,9 +12349,9 @@
   </si>
   <si>
     <t>renvoie la couleur du nième pad comme il devrait être utilisé sur un bouton du controller (modifiant la couleur pour en attente/actif/enfoncé selon la capacité RVB du controller).
-      si le pad est actif et n'a pas de couleur, 'white' est renvoyé.
-      si le pad is inactif et a une couleur et que le controller supporte des pads RVB, une couleur atténuée est renvoyée.
-      si le pad est actif et a couleur et que le controller ne supporte pas des pads RVB, la couleur clignote.</t>
+si le pad est actif et n'a pas de couleur, 'white' est renvoyé.
+si le pad is inactif et a une couleur et que le controller supporte des pads RVB, une couleur atténuée est renvoyée.
+si le pad est actif et a couleur et que le controller ne supporte pas des pads RVB, la couleur clignote.</t>
   </si>
   <si>
     <t>renvoie la couleur du nième pad (sans auto-dim)</t>
@@ -12409,7 +12409,7 @@
   </si>
   <si>
     <t>vérifier si la valeur du bouton/encoder/slider appelant est supérieure à une autre valeur : 'param_bigger 0 ? sampler loop 200% : sampler loop 50%'
-      comparer la valeur du premier paramètre à celle du deuxième paramètre. Les deux paramètres peuvent être des actions plutôt que des valeurs : 'param_bigger pitch pitch_slider'</t>
+comparer la valeur du premier paramètre à celle du deuxième paramètre. Les deux paramètres peuvent être des actions plutôt que des valeurs : 'param_bigger pitch pitch_slider'</t>
   </si>
   <si>
     <t>transtype la valeur de l'action de requête précédente dans un nouveau type : 'pitch_range &amp; param_cast "percentage"'. Les types valides sont 'integer', 'float', 'percentage', 'ms', 'boolean', 'beats', 'text'.\nla diffusion en texte peut également éventuellement limiter le nombre de caractères : 'get_browsed_song "artist" &amp; param_cast "text" 5'\npour formater un nombre sous forme de texte avec un nombre spécifique de chiffres : 'get_bpm &amp; param_cast "000"'\nparam_cast 'int_trunc' : fournit la partie entière d'un nombre sans arrondir à l'entier le plus proche\nparam_cast 'frac' : fournit la partie décimale d'un nombre.\nparam_cast 'relative' et param_cast 'absolute' : changez le paramètre en valeur relative ou absolue</t>
@@ -12437,7 +12437,7 @@
   </si>
   <si>
     <t>multiplier la valeur du bouton/encoder/slider appelant par la valeur spécifiée : 'param_multiply 300% &amp; effect slider'
-      Le paramètre peut aussi être une action 'cue_pos 0 &amp; param_multiply "get_time total 1000"'</t>
+Le paramètre peut aussi être une action 'cue_pos 0 &amp; param_multiply "get_time total 1000"'</t>
   </si>
   <si>
     <t>transformer la valeur de l'encoder/slider appelant d'une scale linéaire à une scale forth-and-back</t>
@@ -12489,7 +12489,7 @@
   </si>
   <si>
     <t>Régler le pitch sur 0% (vitesse de lecture normale)
-      Utiliser 'pitch_zero "center"' sur les controllers qui envoient un message quand le slider du pitch est au centre. Ceci empêche un comportement indésirable dans les modes graduels et relatifs.</t>
+Utiliser 'pitch_zero "center"' sur les controllers qui envoient un message quand le slider du pitch est au centre. Ceci empêche un comportement indésirable dans les modes graduels et relatifs.</t>
   </si>
   <si>
     <t>démarrer le deck.</t>
@@ -12562,7 +12562,7 @@
   </si>
   <si>
     <t>régler ce deck pour être utilisé pour la préécoute.
-      Exemple : "deck 1 prelisten_output", ou le remettre par défaut : "prelisten_output 'auto'"</t>
+Exemple : "deck 1 prelisten_output", ou le remettre par défaut : "prelisten_output 'auto'"</t>
   </si>
   <si>
     <t>Déplacer la position du lecteur de la pré écoute</t>
@@ -12710,7 +12710,7 @@
   </si>
   <si>
     <t>définir le mode trigger global pour le sampler : "sampler_mode 'on/off'", 'hold', 'stutter' ou 'unmute'
-      définir le mode trigger pour un sample spécifique : "sampler_mode 1 'on/off'" pour régler sur sample 1 mode ou "sampler_mode 1 +1" pour parcourir</t>
+définir le mode trigger pour un sample spécifique : "sampler_mode 1 'on/off'" pour régler sur sample 1 mode ou "sampler_mode 1 +1" pour parcourir</t>
   </si>
   <si>
     <t>mettre sur mute/enlever mute pour ce sample</t>
@@ -12731,8 +12731,8 @@
     <t>Sélectionnez si l'échantillonneur est envoyé au casque. (Peut être utilisé avec un curseur ou un% pour spécifier le volume: 'sampler_pfl 75%')</t>
   </si>
   <si>
-    <t>jouer le sample sélectionné. syntaxe 'sampler_play' joue le sample par défaut.
-      'sampler_play 4' joue le quatrième sample.</t>
+    <t>jouer le sample sélectionné. syntaxe 'sampler_play' joue le sample par défaut. 
+'sampler_play 4' joue le quatrième sample.</t>
   </si>
   <si>
     <t>jouer le sample sélectionné s'il n'est pas déjà en cours ou l'arrêter si il est en cours.</t>
@@ -12745,9 +12745,9 @@
   </si>
   <si>
     <t>Appuyez une première fois pour commencer à enregistrer un nouveau sample et une deuxième fois pour arrêter l'enregistrement
-      Utiliser 'sampler_rec "mic"' pour enregistrer un sample à partir du microphone, ou 'sampler_rec "master"' pour enregistrer à partir de la sortie master
-      Si le deck est sur loop, un sample de loop sera immédiatement créé. Si le deck est en lecture, il enregistrera ce qui joue jusqu'à l'arrêt. Si le deck est mis sur pause, il définit un 'point d'entrée' et appuyer une deuxième fois définira le 'point de sortie' et utilisera le fichier du deck entre ces deux points.
-      'sampler_rec 1' ou 'sampler_rec 1 "mic"' enregistrera le sample sur le premier slot de la banque de samples "Record" afin qu'il puisse être utilisé juste après l'enregistrement</t>
+Utiliser 'sampler_rec "mic"' pour enregistrer un sample à partir du microphone, ou 'sampler_rec "master"' pour enregistrer à partir de la sortie master
+Si le deck est sur loop, un sample de loop sera immédiatement créé. Si le deck est en lecture, il enregistrera ce qui joue jusqu'à l'arrêt. Si le deck est mis sur pause, il définit un 'point d'entrée' et appuyer une deuxième fois définira le 'point de sortie' et utilisera le fichier du deck entre ces deux points.
+'sampler_rec 1' ou 'sampler_rec 1 "mic"' enregistrera le sample sur le premier slot de la banque de samples "Record" afin qu'il puisse être utilisé juste après l'enregistrement</t>
   </si>
   <si>
     <t>supprimer un enregistrement de la banque ' Enregistrements »\n' sampler_rec_delete 3 » supprimerait l'échantillon précédemment enregistré à l'aide de ' sampler_rec 3 »</t>
@@ -12769,8 +12769,8 @@
   </si>
   <si>
     <t>'sampler_volume' règle le volume du sample qui a le focus sur le deck sélectionné.
-      'sampler_volume 1' définit le volume du sample du slot 1 de la banque actuelle.
-      'sampler_volume "siren"' définit le volume du sample 'siren.vdjsample'.</t>
+'sampler_volume 1' définit le volume du sample du slot 1 de la banque actuelle.
+'sampler_volume "siren"' définit le volume du sample 'siren.vdjsample'.</t>
   </si>
   <si>
     <t>'sampler_volume_master' définit le volume master du sampler</t>
@@ -12780,7 +12780,7 @@
   </si>
   <si>
     <t>activer/désactiver le mode sandbox.
-      en mode sandbox, la sortie master continue de jouer ce qui est en cours sans être affectée par vos actions. Vous pouvez bouger les deux decks à n'importe quelle position afin de préécouter votre prochain mix.</t>
+en mode sandbox, la sortie master continue de jouer ce qui est en cours sans être affectée par vos actions. Vous pouvez bouger les deux decks à n'importe quelle position afin de préécouter votre prochain mix.</t>
   </si>
   <si>
     <t>sauvegarder les modifications de config maintenant (normalement les modifications sont sauvegardées automatiquement à la fermeture de virtualdj)</t>
@@ -12790,7 +12790,7 @@
   </si>
   <si>
     <t>'saved_loop 1' charge la loop sauvegardée dans le slot 1 ou set s'il n'existe pas
-      'saved_loop "myloop"' charge la boucle appelée "myloop" ou la crée si elle n'existe pas</t>
+'saved_loop "myloop"' charge la boucle appelée "myloop" ou la crée si elle n'existe pas</t>
   </si>
   <si>
     <t>'saved_loop_autotrigger 1' Activer/Désactiver le déclenchement automatique de la boucle lorsque la position de lecture arrive à la boucle enregistrée</t>
@@ -12800,7 +12800,7 @@
   </si>
   <si>
     <t>'saved_loop_prepare 1' active/désactive la loop sauvegardée dans le slot 1 sans aller au point de démarrage ou la crée si elle n'existe pas
-      'saved_loop_prepare "myloop"' active/désactive la boucle appelée "myloop" sans aller au point de démarrage ou la crée si elle n'existe pas</t>
+'saved_loop_prepare "myloop"' active/désactive la boucle appelée "myloop" sans aller au point de démarrage ou la crée si elle n'existe pas</t>
   </si>
   <si>
     <t>'scratch +120ms' pour scratcher 120ms en avant.</t>
@@ -12882,8 +12882,8 @@
   </si>
   <si>
     <t>lire ou écrire un paramétrage spécifique (voir la fenêtre de configuration pour la liste de tous les paramétrages) ou écrire un paramétrage spécifique
-      Exemple : setting "jogSensitivityScratch" 80%
-      Exemple : setting "videoRandomTransition" on</t>
+Exemple : setting "jogSensitivityScratch" 80% 
+Exemple : setting "videoRandomTransition" on</t>
   </si>
   <si>
     <t>réinitialiser un paramètre à sa valeur par défaut</t>
@@ -12917,8 +12917,8 @@
   </si>
   <si>
     <t>afficher du texte sur l'affichage du controller. (Si votre controller utilise get_display pour les affichages)
-      "show_text 'Line 1|Line 2' 3000ms" affichera 2 lignes de texte pendant 3 secondes (temps optionnel, | pour séparer les lignes)
-      "show_text '$myvar$'" affiche le contenu de la variable $myvar</t>
+"show_text 'Line 1|Line 2' 3000ms" affichera 2 lignes de texte pendant 3 secondes (temps optionnel, | pour séparer les lignes)
+"show_text '$myvar$'" affiche le contenu de la variable $myvar</t>
   </si>
   <si>
     <t>sur les skins avec plusieurs fenêtres, afficher ou masquer la fenêtre spécifiée</t>
@@ -12946,7 +12946,7 @@
   </si>
   <si>
     <t>Afficher un dossier spécifique dans la sideview. Les sideviews disponibles sont automix, sidelist, karaoké, sampler, clone
-      Utiliser 'sideview +1' ou 'sideview -1' pour scroller entre les sideviews disponibles</t>
+Utiliser 'sideview +1' ou 'sideview -1' pour scroller entre les sideviews disponibles</t>
   </si>
   <si>
     <t>Afficher the menu contextuel pour ajouter ou supprimer les raccourcis aux dossiers à la sideView</t>
@@ -12974,10 +12974,10 @@
   </si>
   <si>
     <t>"slicer 1" à "slicer 8" pour les 8 boutons slicer
-      "slicer 1 'hold'" pour garder la position actuelle à la première activation
-      "slicer 'length' +1" pour augmenter la durée
-      "slicer 'step' +1" pour augmenter la taille du step
-      "slicer video" pour basculer le slicer vidéo sur on ou off</t>
+"slicer 1 'hold'" pour garder la position actuelle à la première activation
+"slicer 'length' +1" pour augmenter la durée
+"slicer 'step' +1" pour augmenter la taille du step
+"slicer video" pour basculer le slicer vidéo sur on ou off</t>
   </si>
   <si>
     <t>activer ou désactiver un mode de slip global qui sauvegardera la position sur "slip on" et reprendra où il aurait dû être si non touché sur "slip off", vous permettant tout scratch/loop/effet/etc. entre temps</t>
@@ -13056,7 +13056,7 @@
   </si>
   <si>
     <t>Sélectionner si le deck est contrôlé par un signal timecode.
-      (à noter : vous pouvez utiliser 'timecode_active x' où x est le numéro de la platine, pour faire en sorte que la même platine contrôle plusieurs decks à la fois : 'deck 1 timecode_active 1 on &amp; deck 2 timecode_active 1 on')</t>
+(à noter : vous pouvez utiliser 'timecode_active x' où x est le numéro de la platine, pour faire en sorte que la même platine contrôle plusieurs decks à la fois : 'deck 1 timecode_active 1 on &amp; deck 2 timecode_active 1 on')</t>
   </si>
   <si>
     <t>Utiliser la platine timecode comme entrée linein</t>
@@ -13158,9 +13158,9 @@
     <t>slider fondu au noir indépendant pour le deck vidéo gauche ou droit</t>
   </si>
   <si>
-    <t>Afficher le menu pour  sélectionner sur quel moniteur ouvrir la sortie vidéo.
-      Vous pouvez aussi spécifier une sortie précise : "video_output 1" pour ouvrir la sortie vidéo sur le premier moniteur
-      Pour afficher ou masquer uniquement la sortie, utiliser "video_output on" ou "video_output off". Pour basculer la sortie, utiliser "video_output ? video_output off : video_output on"</t>
+    <t>Afficher le menu pour  sélectionner sur quel moniteur ouvrir la sortie vidéo. 
+Vous pouvez aussi spécifier une sortie précise : "video_output 1" pour ouvrir la sortie vidéo sur le premier moniteur
+Pour afficher ou masquer uniquement la sortie, utiliser "video_output on" ou "video_output off". Pour basculer la sortie, utiliser "video_output ? video_output off : video_output on"</t>
   </si>
   <si>
     <t>activer la vidéo si elle n'est pas encore active, et ouvrir la boîte de dialogue de sélection du shader si shader est la source</t>
@@ -13170,9 +13170,9 @@
   </si>
   <si>
     <t>Lancer une transition d'un deck de vidéo à l'autre.
-      Vous pouvez spécifier la durée de la transition: 'video_transition 1000ms'
-      Vous pouvez spécifier le sens de la transition: 'video_transition "left"' ou 'video_transition "left" 1000ms'
-      Vous pouvez spécifier l'endroit où faire la transition en utilisant un pourcentage (ou l'assigner à un slider): 'video_transition 50%' ou 'video_transition 1000ms 50%'</t>
+Vous pouvez spécifier la durée de la transition: 'video_transition 1000ms'
+Vous pouvez spécifier le sens de la transition: 'video_transition "left"' ou 'video_transition "left" 1000ms'
+Vous pouvez spécifier l'endroit où faire la transition en utilisant un pourcentage (ou l'assigner à un slider): 'video_transition 50%' ou 'video_transition 1000ms 50%'</t>
   </si>
   <si>
     <t>pousser le nième bouton du plugin de transition vidéo</t>
